--- a/데이터베이스 설계/테이블명세-학사정보.xlsx
+++ b/데이터베이스 설계/테이블명세-학사정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50514\Documents\workspace\dbms\데이터베이스 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B556A9-5532-469C-A5B3-043E12D21960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC37D85-D175-48A9-8A39-45DCD8A63580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -137,6 +137,104 @@
   </si>
   <si>
     <t>학사정보의 학생정보를 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>학생이름</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>학년</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>고정문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -675,6 +773,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -693,28 +797,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1161,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1721,20 +1819,20 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="40">
+      <c r="I2" s="34"/>
+      <c r="J2" s="36">
         <v>44867</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1746,36 +1844,36 @@
       <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1816,12 +1914,24 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1831,11 +1941,21 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1846,10 +1966,18 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1861,10 +1989,18 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1876,10 +2012,18 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1891,10 +2035,18 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -2082,10 +2234,10 @@
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="28">
         <v>44867</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="23" t="s">
@@ -2884,18 +3036,18 @@
         <v>9</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2905,32 +3057,32 @@
         <v>10</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3237,10 +3389,10 @@
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="28">
         <v>44867</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="23" t="s">
@@ -3360,12 +3512,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
